--- a/10a.xlsx
+++ b/10a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiros-h\Documents\【連載】デジタルアドバンテージ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9856CC5-A06E-4214-9B8B-3DDC11842C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2348DF25-0B77-46A0-9DF4-02CB69960BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38678" yWindow="2377" windowWidth="28230" windowHeight="15098" xr2:uid="{2BAFF28E-1C45-43F0-892E-B4F5F5F388C2}"/>
+    <workbookView xWindow="4500" yWindow="3000" windowWidth="22065" windowHeight="16200" activeTab="3" xr2:uid="{2BAFF28E-1C45-43F0-892E-B4F5F5F388C2}"/>
   </bookViews>
   <sheets>
     <sheet name="勤め先収入1" sheetId="7" r:id="rId1"/>
@@ -289,7 +289,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -328,7 +328,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{B3FF5179-F013-4856-A187-AA0F2F046B63}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>勤め先収入(万円)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -378,7 +378,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -417,7 +417,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{803999FC-46C1-4F68-86C4-29ACDA25FDA6}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>勤め先収入(万円)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -442,6 +442,75 @@
 </file>
 
 <file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>勤労者世帯の勤め先収入</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>勤労者世帯の勤め先収入</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{D81022F1-4159-400F-A38E-0141DD840EAA}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:v>勤め先収入(万円)</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
@@ -486,75 +555,6 @@
           <cx:tx>
             <cx:txData>
               <cx:f>_xlchart.v1.6</cx:f>
-              <cx:v>勤め先収入(万円)</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>勤労者世帯の勤め先収入</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>勤労者世帯の勤め先収入</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{D81022F1-4159-400F-A38E-0141DD840EAA}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>勤め先収入(万円)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3406,7 +3406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B049E8-AE3F-4D11-995A-8076F7E48226}">
   <dimension ref="A1:B1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -4223,7 +4223,7 @@
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A103">
+      <c r="A103" s="4">
         <v>100</v>
       </c>
       <c r="B103" s="2">
@@ -11318,7 +11318,7 @@
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A103">
+      <c r="A103" s="4">
         <v>100</v>
       </c>
       <c r="B103" s="2">
@@ -14035,7 +14035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAAB325C-E538-4892-87A4-FF8CD082B77B}">
   <dimension ref="A1:E1003"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/10a.xlsx
+++ b/10a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiros-h\Documents\【連載】デジタルアドバンテージ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2348DF25-0B77-46A0-9DF4-02CB69960BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE834205-E6E3-4AB1-8395-F7AC2F036EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="3000" windowWidth="22065" windowHeight="16200" activeTab="3" xr2:uid="{2BAFF28E-1C45-43F0-892E-B4F5F5F388C2}"/>
+    <workbookView xWindow="2970" yWindow="2205" windowWidth="28230" windowHeight="15098" xr2:uid="{2BAFF28E-1C45-43F0-892E-B4F5F5F388C2}"/>
   </bookViews>
   <sheets>
     <sheet name="勤め先収入1" sheetId="7" r:id="rId1"/>
@@ -289,7 +289,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -328,7 +328,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{B3FF5179-F013-4856-A187-AA0F2F046B63}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>勤め先収入(万円)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -378,7 +378,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -417,7 +417,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{803999FC-46C1-4F68-86C4-29ACDA25FDA6}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>勤め先収入(万円)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -442,6 +442,75 @@
 </file>
 
 <file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.7</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>勤労者世帯の勤め先収入</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>勤労者世帯の勤め先収入</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{D81022F1-4159-400F-A38E-0141DD840EAA}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:v>勤め先収入(万円)</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
@@ -486,75 +555,6 @@
           <cx:tx>
             <cx:txData>
               <cx:f>_xlchart.v1.4</cx:f>
-              <cx:v>勤め先収入(万円)</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>勤労者世帯の勤め先収入</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>勤労者世帯の勤め先収入</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{D81022F1-4159-400F-A38E-0141DD840EAA}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>勤め先収入(万円)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3406,7 +3406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B049E8-AE3F-4D11-995A-8076F7E48226}">
   <dimension ref="A1:B1003"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -14035,7 +14035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAAB325C-E538-4892-87A4-FF8CD082B77B}">
   <dimension ref="A1:E1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
